--- a/2021.xlsx
+++ b/2021.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2d89d0b3c91e082/Documents/ELN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2d89d0b3c91e082/Documents/R Work/former_soviet_union/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="943" documentId="8_{D10C2BC3-62FE-4995-A18A-F67D6E317490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{833CB70B-C723-47F8-A0CE-B37CA2F21538}"/>
+  <xr:revisionPtr revIDLastSave="2015" documentId="8_{D10C2BC3-62FE-4995-A18A-F67D6E317490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CC9FAC5-50F1-4EDC-B868-CE3BA5FB6B50}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C6D1171-6D14-4A20-BF92-BFBD4BD1A019}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="114">
   <si>
     <t>Resolution</t>
   </si>
@@ -341,6 +341,42 @@
   </si>
   <si>
     <t>Data at: https://digitallibrary.un.org/search?ln=en&amp;cc=Voting%20Data&amp;p=&amp;f=&amp;rm=&amp;ln=en&amp;sf=&amp;so=d&amp;rg=50&amp;c=Voting%20Data&amp;c=&amp;of=hb&amp;fti=0&amp;fct__2=General%20Assembly&amp;fct__9=Vote&amp;fti=0&amp;fct__2=General%20Assembly&amp;fct__9=Vote&amp;fct__3=2021</t>
+  </si>
+  <si>
+    <t>KYR_Vote</t>
+  </si>
+  <si>
+    <t>TAJ_Vote</t>
+  </si>
+  <si>
+    <t>TKM_Vote</t>
+  </si>
+  <si>
+    <t>UZB_Vote</t>
+  </si>
+  <si>
+    <t>KYR_Dis</t>
+  </si>
+  <si>
+    <t>TAJ_Dis</t>
+  </si>
+  <si>
+    <t>TKM_Dis</t>
+  </si>
+  <si>
+    <t>UZB_Dis</t>
+  </si>
+  <si>
+    <t>MOL_Vote</t>
+  </si>
+  <si>
+    <t>MOL_Dis</t>
+  </si>
+  <si>
+    <t>GEO_Vote</t>
+  </si>
+  <si>
+    <t>GEO_Dis</t>
   </si>
 </sst>
 </file>
@@ -736,18 +772,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76769EB4-C00F-47BD-9E22-E0BDF895DA00}">
-  <dimension ref="A1:N1017"/>
+  <dimension ref="A1:W1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
+      <selection activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -767,19 +805,55 @@
         <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="Q1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -798,20 +872,56 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>0.5</v>
+      </c>
+      <c r="N2">
+        <v>0.5</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2">
+        <v>0.5</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,20 +940,56 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>0.5</v>
-      </c>
-      <c r="H3">
-        <v>0.5</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>0.5</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -862,20 +1008,56 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -894,20 +1076,56 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,20 +1144,56 @@
       <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0.5</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.5</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>0.5</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -958,20 +1212,56 @@
       <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>0.5</v>
+      </c>
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -990,20 +1280,56 @@
       <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.5</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1022,20 +1348,56 @@
       <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1054,20 +1416,56 @@
       <c r="F10" t="s">
         <v>5</v>
       </c>
-      <c r="G10">
-        <v>0.5</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="J10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>0.5</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.5</v>
+      </c>
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>0.5</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1086,20 +1484,56 @@
       <c r="F11" t="s">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.5</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,20 +1552,56 @@
       <c r="F12" t="s">
         <v>2</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1150,20 +1620,56 @@
       <c r="F13" t="s">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1182,20 +1688,56 @@
       <c r="F14" t="s">
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>0.5</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.5</v>
-      </c>
-      <c r="J14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.5</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14">
+        <v>0.5</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1214,20 +1756,56 @@
       <c r="F15" t="s">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1246,20 +1824,56 @@
       <c r="F16" t="s">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1278,20 +1892,56 @@
       <c r="F17" t="s">
         <v>2</v>
       </c>
-      <c r="G17">
-        <v>0.5</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0.5</v>
+      </c>
+      <c r="U17">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1310,20 +1960,56 @@
       <c r="F18" t="s">
         <v>2</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1342,20 +2028,56 @@
       <c r="F19" t="s">
         <v>2</v>
       </c>
-      <c r="G19">
-        <v>0.5</v>
-      </c>
-      <c r="H19">
-        <v>0.5</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0.5</v>
+      </c>
+      <c r="N19">
+        <v>0.5</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0.5</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1374,20 +2096,56 @@
       <c r="F20" t="s">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1406,20 +2164,56 @@
       <c r="F21" t="s">
         <v>2</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0.5</v>
-      </c>
-      <c r="J21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.5</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>0.5</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -1438,20 +2232,56 @@
       <c r="F22" t="s">
         <v>2</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1470,20 +2300,56 @@
       <c r="F23" t="s">
         <v>2</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.5</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1502,20 +2368,56 @@
       <c r="F24" t="s">
         <v>2</v>
       </c>
-      <c r="G24">
-        <v>0.5</v>
-      </c>
-      <c r="H24">
-        <v>0.5</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5</v>
+      </c>
+      <c r="N24">
+        <v>0.5</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -1534,20 +2436,56 @@
       <c r="F25" t="s">
         <v>2</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0.5</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1566,20 +2504,56 @@
       <c r="F26" t="s">
         <v>2</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0.5</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1598,20 +2572,56 @@
       <c r="F27" t="s">
         <v>2</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0.5</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0.5</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0.5</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1630,20 +2640,56 @@
       <c r="F28" t="s">
         <v>2</v>
       </c>
-      <c r="G28">
-        <v>0.5</v>
-      </c>
-      <c r="H28">
-        <v>0.5</v>
-      </c>
-      <c r="I28">
-        <v>0.5</v>
-      </c>
-      <c r="J28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>0.5</v>
+      </c>
+      <c r="N28">
+        <v>0.5</v>
+      </c>
+      <c r="O28">
+        <v>0.5</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>0.5</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>0.5</v>
+      </c>
+      <c r="U28">
+        <v>0.5</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1662,20 +2708,56 @@
       <c r="F29" t="s">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0.5</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0.5</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1694,20 +2776,56 @@
       <c r="F30" t="s">
         <v>2</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0.5</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0.5</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -1726,20 +2844,56 @@
       <c r="F31" t="s">
         <v>2</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0.5</v>
+      </c>
+      <c r="O31">
+        <v>0.5</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+      <c r="Q31">
+        <v>0.5</v>
+      </c>
+      <c r="R31">
+        <v>0.5</v>
+      </c>
+      <c r="S31">
+        <v>0.5</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1758,20 +2912,56 @@
       <c r="F32" t="s">
         <v>2</v>
       </c>
-      <c r="G32">
-        <v>0.5</v>
-      </c>
-      <c r="H32">
-        <v>0.5</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>0.5</v>
+      </c>
+      <c r="N32">
+        <v>0.5</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
+      </c>
+      <c r="R32">
+        <v>0.5</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>0.5</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1790,20 +2980,56 @@
       <c r="F33" t="s">
         <v>2</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0.5</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0.5</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0.5</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -1822,20 +3048,56 @@
       <c r="F34" t="s">
         <v>2</v>
       </c>
-      <c r="G34">
-        <v>0.5</v>
-      </c>
-      <c r="H34">
-        <v>0.5</v>
-      </c>
-      <c r="I34">
-        <v>0.5</v>
-      </c>
-      <c r="J34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.5</v>
+      </c>
+      <c r="N34">
+        <v>0.5</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+      <c r="Q34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>0.5</v>
+      </c>
+      <c r="S34">
+        <v>0.5</v>
+      </c>
+      <c r="T34">
+        <v>0.5</v>
+      </c>
+      <c r="U34">
+        <v>0.5</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1854,20 +3116,56 @@
       <c r="F35" t="s">
         <v>2</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0.5</v>
-      </c>
-      <c r="J35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0.5</v>
+      </c>
+      <c r="P35">
+        <v>0.5</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0.5</v>
+      </c>
+      <c r="S35">
+        <v>0.5</v>
+      </c>
+      <c r="T35">
+        <v>0.5</v>
+      </c>
+      <c r="U35">
+        <v>0.5</v>
+      </c>
+      <c r="V35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1886,20 +3184,56 @@
       <c r="F36" t="s">
         <v>1</v>
       </c>
-      <c r="G36">
-        <v>0.5</v>
-      </c>
-      <c r="H36">
-        <v>0.5</v>
-      </c>
-      <c r="I36">
-        <v>0.5</v>
-      </c>
-      <c r="J36">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5</v>
+      </c>
+      <c r="N36">
+        <v>0.5</v>
+      </c>
+      <c r="O36">
+        <v>0.5</v>
+      </c>
+      <c r="P36">
+        <v>0.5</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>0.5</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>0.5</v>
+      </c>
+      <c r="U36">
+        <v>0.5</v>
+      </c>
+      <c r="V36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -1918,20 +3252,56 @@
       <c r="F37" t="s">
         <v>2</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1950,20 +3320,56 @@
       <c r="F38" t="s">
         <v>2</v>
       </c>
-      <c r="G38">
-        <v>0.5</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0.5</v>
-      </c>
-      <c r="J38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>0.5</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0.5</v>
+      </c>
+      <c r="P38">
+        <v>0.5</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0.5</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0.5</v>
+      </c>
+      <c r="U38">
+        <v>0.5</v>
+      </c>
+      <c r="V38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1982,20 +3388,56 @@
       <c r="F39" t="s">
         <v>2</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0.5</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -2014,20 +3456,56 @@
       <c r="F40" t="s">
         <v>2</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0.5</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0.5</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2046,20 +3524,56 @@
       <c r="F41" t="s">
         <v>2</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0.5</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0.5</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0.5</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -2078,20 +3592,56 @@
       <c r="F42" t="s">
         <v>2</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0.5</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0.5</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0.5</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>46</v>
       </c>
@@ -2110,20 +3660,56 @@
       <c r="F43" t="s">
         <v>1</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0.5</v>
-      </c>
-      <c r="J43">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0.5</v>
+      </c>
+      <c r="P43">
+        <v>0.5</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>0.5</v>
+      </c>
+      <c r="U43">
+        <v>0.5</v>
+      </c>
+      <c r="V43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2142,20 +3728,56 @@
       <c r="F44" t="s">
         <v>2</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2174,20 +3796,56 @@
       <c r="F45" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -2206,20 +3864,56 @@
       <c r="F46" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G46">
-        <v>0.5</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0.5</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>0.5</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0.5</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0.5</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0.5</v>
+      </c>
+      <c r="U46">
+        <v>0.5</v>
+      </c>
+      <c r="V46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>50</v>
       </c>
@@ -2238,20 +3932,56 @@
       <c r="F47" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2270,20 +4000,56 @@
       <c r="F48" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2302,20 +4068,56 @@
       <c r="F49" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -2334,20 +4136,56 @@
       <c r="F50" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0.5</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0.5</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0.5</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0.5</v>
+      </c>
+      <c r="U50">
+        <v>0.5</v>
+      </c>
+      <c r="V50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>54</v>
       </c>
@@ -2366,20 +4204,56 @@
       <c r="F51" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2398,20 +4272,56 @@
       <c r="F52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -2430,20 +4340,56 @@
       <c r="F53" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -2462,20 +4408,56 @@
       <c r="F54" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0.5</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0.5</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2494,20 +4476,56 @@
       <c r="F55" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0.5</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0.5</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
@@ -2526,20 +4544,56 @@
       <c r="F56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0.5</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>0.5</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>60</v>
       </c>
@@ -2558,20 +4612,56 @@
       <c r="F57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0.5</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G57" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0.5</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>0.5</v>
+      </c>
+      <c r="U57">
+        <v>0.5</v>
+      </c>
+      <c r="V57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2590,20 +4680,56 @@
       <c r="F58" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -2622,20 +4748,56 @@
       <c r="F59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0.5</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0.5</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>63</v>
       </c>
@@ -2654,20 +4816,56 @@
       <c r="F60" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0.5</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0.5</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2686,20 +4884,56 @@
       <c r="F61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -2718,20 +4952,56 @@
       <c r="F62" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>66</v>
       </c>
@@ -2750,20 +5020,56 @@
       <c r="F63" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0.5</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0.5</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2782,20 +5088,56 @@
       <c r="F64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>68</v>
       </c>
@@ -2814,23 +5156,59 @@
       <c r="F65" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="G65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0.5</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0.5</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
@@ -2849,20 +5227,56 @@
       <c r="F66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2881,20 +5295,56 @@
       <c r="F67" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -2913,20 +5363,56 @@
       <c r="F68" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0.5</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>73</v>
       </c>
@@ -2945,20 +5431,56 @@
       <c r="F69" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>0.5</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G69" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0.5</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0.5</v>
+      </c>
+      <c r="Q69">
+        <v>0.5</v>
+      </c>
+      <c r="R69">
+        <v>0.5</v>
+      </c>
+      <c r="S69">
+        <v>0.5</v>
+      </c>
+      <c r="T69">
+        <v>0.5</v>
+      </c>
+      <c r="U69">
+        <v>0.5</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2977,20 +5499,56 @@
       <c r="F70" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -3009,20 +5567,56 @@
       <c r="F71" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G71" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0.5</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0.5</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0.5</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>76</v>
       </c>
@@ -3041,20 +5635,56 @@
       <c r="F72" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0.5</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -3073,20 +5703,56 @@
       <c r="F73" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G73" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -3105,20 +5771,56 @@
       <c r="F74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>79</v>
       </c>
@@ -3137,20 +5839,56 @@
       <c r="F75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G75" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0.5</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -3169,20 +5907,56 @@
       <c r="F76" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -3201,20 +5975,56 @@
       <c r="F77" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>82</v>
       </c>
@@ -3233,20 +6043,56 @@
       <c r="F78" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G78" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0.5</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -3265,20 +6111,56 @@
       <c r="F79" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0.5</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -3297,20 +6179,56 @@
       <c r="F80" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G80" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0.5</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>85</v>
       </c>
@@ -3329,20 +6247,56 @@
       <c r="F81" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G81">
-        <v>0.5</v>
-      </c>
-      <c r="H81">
-        <v>0.5</v>
-      </c>
-      <c r="I81">
-        <v>0.5</v>
-      </c>
-      <c r="J81">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G81" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>0.5</v>
+      </c>
+      <c r="N81">
+        <v>0.5</v>
+      </c>
+      <c r="O81">
+        <v>0.5</v>
+      </c>
+      <c r="P81">
+        <v>0.5</v>
+      </c>
+      <c r="Q81">
+        <v>0.5</v>
+      </c>
+      <c r="R81">
+        <v>0.5</v>
+      </c>
+      <c r="S81">
+        <v>0.5</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -3361,20 +6315,56 @@
       <c r="F82" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0.5</v>
-      </c>
-      <c r="I82">
-        <v>0.5</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G82" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0.5</v>
+      </c>
+      <c r="O82">
+        <v>0.5</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0.5</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,20 +6383,56 @@
       <c r="F83" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G83" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0.5</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0.5</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>88</v>
       </c>
@@ -3425,20 +6451,56 @@
       <c r="F84" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0.5</v>
-      </c>
-      <c r="I84">
-        <v>0.5</v>
-      </c>
-      <c r="J84">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0.5</v>
+      </c>
+      <c r="O84">
+        <v>0.5</v>
+      </c>
+      <c r="P84">
+        <v>0.5</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>0.5</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>0.5</v>
+      </c>
+      <c r="U84">
+        <v>0.5</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -3457,20 +6519,56 @@
       <c r="F85" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G85" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H85">
-        <v>0.5</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G85" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M85" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N85">
+        <v>0.5</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>0.5</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>0.5</v>
+      </c>
+      <c r="U85">
+        <v>0.5</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -3489,20 +6587,56 @@
       <c r="F86" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G86" s="7">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0.5</v>
-      </c>
-      <c r="I86">
-        <v>0.5</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G86" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0.5</v>
+      </c>
+      <c r="O86">
+        <v>0.5</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0.5</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0.5</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>91</v>
       </c>
@@ -3521,55 +6655,115 @@
       <c r="F87" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G87" s="7">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0.5</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G88">
-        <f>SUM(G2:G87)/86</f>
+      <c r="G87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0.5</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0.5</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0.5</v>
+      </c>
+      <c r="U87">
+        <v>0.5</v>
+      </c>
+      <c r="V87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M88">
+        <f>SUM(M2:M87)/86</f>
         <v>0.18604651162790697</v>
       </c>
-      <c r="H88">
-        <f>SUM(H2:H87)/86</f>
-        <v>0.22674418604651161</v>
-      </c>
-      <c r="I88">
-        <f>SUM(I2:I87)/86</f>
-        <v>0.30813953488372092</v>
-      </c>
-      <c r="J88">
-        <f>SUM(J2:J87)/86</f>
-        <v>0.27906976744186046</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+      <c r="N88">
+        <f>SUM(N2:N87)/86</f>
+        <v>0.22093023255813954</v>
+      </c>
+      <c r="O88">
+        <f>SUM(O2:O87)/86</f>
+        <v>0.30232558139534882</v>
+      </c>
+      <c r="P88">
+        <f>SUM(P2:P87)/86</f>
+        <v>0.27325581395348836</v>
+      </c>
+      <c r="Q88">
+        <f>SUM(Q2:Q87)/86</f>
+        <v>0.37790697674418605</v>
+      </c>
+      <c r="R88">
+        <f>SUM(R1:R87)/86</f>
+        <v>0.25</v>
+      </c>
+      <c r="S88">
+        <f>SUM(S1:S87)/86</f>
+        <v>0.44767441860465118</v>
+      </c>
+      <c r="T88">
+        <f>SUM(T1:T87)/86</f>
+        <v>0.25</v>
+      </c>
+      <c r="U88">
+        <f>SUM(U1:U87)/86</f>
+        <v>0.27325581395348836</v>
+      </c>
+      <c r="V88">
+        <f>SUM(V1:V87)/86</f>
+        <v>0.23837209302325582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
